--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
+    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,20 +165,6 @@
   </si>
   <si>
     <t>messagetype (string)
-led_number (int)
-status (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-sensor_number (int)
-status (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
 id (string)
 pwd (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,20 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Parkingslot_LED",
-"sendor_number" : 2,
-"status" : "off",
-"timestamp" : 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkingslot_Sensor",
-"sendor_number" : 2,
-"status" : "empty",
-"timestamp" : 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"messagetype" : "ExitGate_LED",
 "status" : "red",
 "timestamp" : 60</t>
@@ -281,12 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Parkingslot_LED",
-"sensor_number" : 3,
-"command" : "on"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>messagetype (string)
 result (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,12 +260,6 @@
   <si>
     <t>messagetype (string)
 command (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-sensor_number (int)
-status (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,34 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-slot_number (int)
-slot_status (string[])
-led_status (string[])
-entrygate (string)
-exitgate (string)
-entrygateled (string)
-exitgateled (string)
-entrygate_arrive (string)
-exitgate_arrive (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Information",
-"slot_number" : 4,
-"slot_status" : {"1", "1", "0", "1"},
-"led_status" : {"0", "0", "0", "0"},
-"entrygate" : "0",
-"exitgate" : "0",
-"entrygateled" : "0",
-"exitgateled" : "1",
-"entrygate_arrive" : "0",
-"exitgate_arrive" : "0",
-"timestamp" : 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 1~10
 empty or occupied
@@ -567,12 +499,248 @@
 -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+status (string)
+timestamp (int)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkingslot_Sensor",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 2,
+"status" : "empty",
+"timestamp" : 10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkingslot_LED",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 2,
+"status" : "off",
+"timestamp" : 15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+slot_status (string[])
+led_status (string[])
+entrygate (string)
+exitgate (string)
+entrygateled (string)
+exitgateled (string)
+entrygate_arrive (string)
+exitgate_arrive (string)
+timestamp (int)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkinglot_Information",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : {"1", "1", "0", "1"},
+"led_status" : {"0", "0", "0", "0"},
+"entrygate" : "0",
+"exitgate" : "0",
+"entrygateled" : "0",
+"exitgateled" : "1",
+"entrygate_arrive" : "0",
+"exitgate_arrive" : "0",
+"timestamp" : 5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+status (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkingslot_LED",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 3,
+"command" : "on"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +760,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -983,11 +1160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1043,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1063,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1080,13 +1257,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1103,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1120,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1137,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1154,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,13 +1342,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1182,13 +1359,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,13 +1376,13 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,13 +1393,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1233,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1253,11 +1430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1295,13 +1472,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,13 +1489,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,13 +1523,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,13 +1540,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1380,13 +1557,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1397,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1636,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1473,16 +1650,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1493,13 +1670,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1555,13 +1732,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -1569,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1586,19 +1763,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1667,16 +1844,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="99" x14ac:dyDescent="0.3">
@@ -1684,16 +1861,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1701,16 +1878,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -1718,16 +1895,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1783,13 +1960,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
@@ -1797,16 +1974,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1814,19 +1991,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -1834,16 +2011,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,96 @@
   </si>
   <si>
     <r>
+      <t>"messagetype" : "Parkingslot_LED",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 3,
+"command" : "on"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+command (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>"messagetype" : "Parkinglot_Information",
 "</t>
     </r>
@@ -661,8 +751,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>" : 4,
-"slot_status" : {"1", "1", "0", "1"},
-"led_status" : {"0", "0", "0", "0"},
+"slot_status" : ["1", "1", "0", "1"],
+"led_status" : ["0", "0", "0", "0"],
 "entrygate" : "0",
 "exitgate" : "0",
 "entrygateled" : "0",
@@ -670,68 +760,6 @@
 "entrygate_arrive" : "0",
 "exitgate_arrive" : "0",
 "timestamp" : 5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-status (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkingslot_LED",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 3,
-"command" : "on"</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1226,7 +1254,7 @@
         <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>86</v>
@@ -1430,11 +1458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1442,8 +1470,8 @@
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1540,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1557,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1586,7 +1614,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
+    <workbookView xWindow="10800" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="ParkServer→ParkHere (Attendant)" sheetId="6" r:id="rId4"/>
     <sheet name="ParkHere→ParkServer (Driver)" sheetId="8" r:id="rId5"/>
     <sheet name="ParkServer→ParkHere (Driver)" sheetId="9" r:id="rId6"/>
+    <sheet name="ParkHere→ParkServer (Owner)" sheetId="10" r:id="rId7"/>
+    <sheet name="ParkServer→ParkHere (Owner)" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,36 +274,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "ParkinglotStatus_Request",
-"timestamp" : 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParkinglotStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-slot_number (int)
-slot_status (string[])
-slot_time (string[])
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1~10
-empty or occupied
-millisec
--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Information",
-"slot_number" : 4,
-"slot_status" : {"occupied", "occupied", "empty", "occupied"},
-"slot_time" : {"1000", "2000", "0", "3000"},
-"timestamp" : 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -636,6 +609,76 @@
   </si>
   <si>
     <r>
+      <t>"messagetype" : "Parkinglot_Information",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : {"1", "1", "0", "1"},
+"led_status" : {"0", "0", "0", "0"},
+"entrygate" : "0",
+"exitgate" : "0",
+"entrygateled" : "0",
+"exitgateled" : "1",
+"entrygate_arrive" : "0",
+"exitgate_arrive" : "0",
+"timestamp" : 5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+status (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>"messagetype" : "Parkingslot_LED",
 "</t>
     </r>
@@ -666,101 +709,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>messagetype (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ParkinglotStatus_Request"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>messagetype (string)
-command (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>command</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkinglot_Information",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : ["1", "1", "0", "1"],
-"led_status" : ["0", "0", "0", "0"],
-"entrygate" : "0",
-"exitgate" : "0",
-"entrygateled" : "0",
-"exitgateled" : "1",
-"entrygate_arrive" : "0",
-"exitgate_arrive" : "0",
-"timestamp" : 5</t>
-    </r>
+slot_number (int)
+slot_status (string[])
+slot_time (string[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1~10
+empty or occupied
+millisec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Information",
+"slot_number" : 4,
+"slot_status" : {"occupied", "occupied", "empty", "occupied"},
+"slot_time" : {"1000", "2000", "0", "3000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ParkinglotInfo_Request"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+driver_id (string)
+parkinglot_id (string)
+reservation_time (string)
+paymentinfo (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"driver_id" : "louder81@gmail.com",
+"parkinglot_id" : "aabb",
+"reservation_time" : "2016:06:24:12:00",
+"paymentinfo" : "2222333344445555"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"driver_id" : "louder81@gmail.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+driver_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+driver_id (string)
+reservation_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"driver_id" : "louder81@gmail.com",
+"reservation_id" : "000111000111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+reservation_id (string)
+reservation_time (string)
+parkinglot_id (string)
+parkinglot_location (string)
+parkingfee (string)
+graceperiod (string)
+paymentinfo (string)
+confirmationinfo (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"result" : "ok",
+"reservation_id" : "12",
+"reservation_time" : "2016:06:24:12:00",
+"parkinglot_id" : "1",
+"parkinglot_location" : "811 S Negley Pittsburgh",
+"parkingfee" : "5.99",
+"graceperiod" : "120",
+"paymentinfo" : "2222333344445555",
+"configrmationinfo" : "sanghee, aabbccdd"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+reservation_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"result" : "cancelled",
+"reservation_id" : "000111000111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ParkingLot_Information",
+"parkinglot_number" : 3,
+"parkinglot_id" : {"1", "2", "3"},
+"parkinglot_location" : {"811 S Negley Pittsburgh", "b", "c"},
+"parkingfee" : {"5.99", "10.99", "15.99"},
+"graceperiod" : {"120", "30", "0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_number (int)
+parkinglot_id (string[])
+parkinglot_location (string[])
+parkingfee (string[])
+graceperiod (string[])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,11 +1260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1248,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1268,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1285,13 +1357,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1458,11 +1530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1470,8 +1542,8 @@
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1568,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1585,13 +1657,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1614,19 +1686,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,7 +1745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1681,30 +1753,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1776,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1769,21 +1824,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1791,19 +1846,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1818,9 +1873,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1867,77 +1923,78 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="99" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1945,11 +2002,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,21 +2055,268 @@
         <v>45</v>
       </c>
     </row>
+    <row r="4" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -2019,19 +2324,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -2039,16 +2344,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="11760" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,11 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "ParkinglotInfo_Request",
-"timestamp" : 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reservation_Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,117 +322,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-parkinglot_number (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
-parkingfee (string[])
-graceperiod (string[])
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "ParkingLot_Information",
-"parkinglot_number" : 3,
-"parkinglot_id" : {"1", "2", "3"},
-"parkinglot_location" : {"811 S Negley Pittsburgh", "b", "c"},
-"parkingfee" : {"5.99", "10.99", "15.99"},
-"graceperiod" : {"120", "30", "0"},
-"timestamp" : 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-driver_id (string)
-parkinglot_id (string)
-reservation_time (string)
-paymentinfo (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-driver_id (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"driver_id" : "louder81@gmail.com",
-"reservation_id" : "000111000111",
-"timestamp" : 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-driver_id (string)
-reservation_id (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"driver_id" : "louder81@gmail.com",
-"timestamp" : 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"driver_id" : "louder81@gmail.com",
-"parkinglot_id" : "aabb",
-"reservation_time" : "2016:06:24:12:00",
-"paymentinfo" : "2222333344445555",
-"timestamp" : 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-reservation_id (string)
-reservation_time (string)
-parkinglot_id (string)
-parkinglot_location (string)
-parkingfee (string)
-graceperiod (string)
-paymentinfo (string)
-confirmationinfo (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"result" : "ok",
-"reservation_id" : "12",
-"reservation_time" : "2016:06:24:12:00",
-"parkinglot_id" : "1",
-"parkinglot_location" : "811 S Negley Pittsburgh",
-"parkingfee" : "5.99",
-"graceperiod" : "120",
-"paymentinfo" : "2222333344445555",
-"configrmationinfo" : "sanghee, aabbccdd",
-"timestamp" : 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cancel_Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-reservation_id (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"result" : "cancelled",
-"reservation_id" : "000111000111",
-"timestamp" : 200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,45 +498,6 @@
   </si>
   <si>
     <r>
-      <t>"messagetype" : "Parkinglot_Information",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : {"1", "1", "0", "1"},
-"led_status" : {"0", "0", "0", "0"},
-"entrygate" : "0",
-"exitgate" : "0",
-"entrygateled" : "0",
-"exitgateled" : "1",
-"entrygate_arrive" : "0",
-"exitgate_arrive" : "0",
-"timestamp" : 5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">messagetype (string)
 </t>
     </r>
@@ -714,13 +564,6 @@
   </si>
   <si>
     <t>"messagetype" : "ParkinglotStatus_Request"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-slot_number (int)
-slot_status (string[])
-slot_time (string[])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,13 +571,6 @@
 1~10
 empty or occupied
 millisec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Information",
-"slot_number" : 4,
-"slot_status" : {"occupied", "occupied", "empty", "occupied"},
-"slot_time" : {"1000", "2000", "0", "3000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -818,21 +654,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "ParkingLot_Information",
-"parkinglot_number" : 3,
+    <r>
+      <t>"messagetype" : "Parkinglot_Information",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : ["1", "1", "0", "1"],
+"led_status" : ["0", "0", "0", "0"],
+"entrygate" : "0",
+"exitgate" : "0",
+"entrygateled" : "0",
+"exitgateled" : "1",
+"entrygate_arrive" : "0",
+"exitgate_arrive" : "0",
+"timestamp" : 5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>messagetype (string)
+parkinglot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+parkinglot_id (string[])
+parkinglot_location (string[])
+parkingfee (string[])
+graceperiod (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "ParkingLot_Information",
+"parkinglot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 3,
+"parkinglot_id" : ["1", "2", "3"],
+"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
+"parkingfee" : ["5.99", "10.99", "15.99"],
+"graceperiod" : ["120", "30", "0"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "ParkingLot_Information",
+"parkinglot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 3,
 "parkinglot_id" : {"1", "2", "3"},
 "parkinglot_location" : {"811 S Negley Pittsburgh", "b", "c"},
 "parkingfee" : {"5.99", "10.99", "15.99"},
 "graceperiod" : {"120", "30", "0"}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>messagetype (string)
-parkinglot_number (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
-parkingfee (string[])
-graceperiod (string[])</t>
+parkinglot_id (string)
+period (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"period" : "week"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_stats_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day, week, month, year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_parkingfee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+fee (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_graceperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"fee" : "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>messagetype (string)
+slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "ParkinglotStatus",
+"slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+occupancy_rate (string)
+revenue (string)
+cancel_rate (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Statistics",
+"parkinglot_id" : "1",
+"occupancy_rate" : "50%",
+"revenue" : "100$",
+"cancel_rate" : "0%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>messagetype (string)
+parkinglot_id (string)
+slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "ParkinglotStatus",
+"parkinglot_id" : "1",
+"slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+type (string)
+value (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_Response",
+"result" : "ok",
+"type" : "fee",
+"value" : "20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +1020,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +1047,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1260,11 +1448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1320,16 +1508,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1340,13 +1528,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1357,13 +1545,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1534,7 +1722,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1657,13 +1845,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,7 +1886,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1753,13 +1941,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1964,239 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="61.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1824,59 +2244,77 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1889,7 +2327,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +2344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1923,7 +2361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1931,38 +2369,41 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>99</v>
@@ -1971,24 +2412,24 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1998,16 +2439,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2458,7 @@
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="6" max="6" width="57.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2055,7 +2496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2063,301 +2504,70 @@
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
+    <workbookView xWindow="12720" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -914,90 +914,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-occupancy_rate (string)
-revenue (string)
-cancel_rate (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Statistics",
-"parkinglot_id" : "1",
-"occupancy_rate" : "50%",
-"revenue" : "100$",
-"cancel_rate" : "0%"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>messagetype (string)
-parkinglot_id (string)
-slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-slot_status (string[])
-slot_driverid (string[])
-driver_often (string[])
-slot_time (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "ParkinglotStatus",
-"parkinglot_id" : "1",
-"slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : ["occupied", "occupied", "empty", "occupied"],
-"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
-"driver_often" : ["1", "2", "", "4"],
-"slot_time" : ["1000", "2000", "0", "3000"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Change_Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,6 +929,101 @@
 "result" : "ok",
 "type" : "fee",
 "value" : "20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+slot_count (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])
+occupancy_rate (string)
+revenue (string)
+cancel_rate (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Statistics",
+"parkinglot_id" : "1",
+"slot_count" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]
+"occupancy_rate" : "50%",
+"revenue" : "100$",
+"cancel_rate" : "0%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+name (string)
+parkinglot_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave",
+"parkinglot_id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Attendant",
+"id" : "aaa@aaa.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Parkinglot",
+"id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+address (string)
+fee (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Parkinglot",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"address" : "aaaaaaaaa",
+"fee" : "10",
+"graceperiod" : "120"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2307,14 +2318,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2432,6 +2443,70 @@
         <v>103</v>
       </c>
     </row>
+    <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2441,14 +2516,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2513,57 +2588,40 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="13680" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,14 +315,6 @@
   </si>
   <si>
     <t>Reservation_Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParkingLot_Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,8 +718,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"messagetype" : "ParkingLot_Information",
+    <t>messagetype (string)
+parkinglot_id (string)
+period (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"period" : "week"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_stats_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day, week, month, year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_parkingfee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+fee (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_graceperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"fee" : "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>messagetype (string)
+slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "ParkinglotStatus",
+"slot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+type (string)
+value (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_Response",
+"result" : "ok",
+"type" : "fee",
+"value" : "20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+slot_count (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])
+occupancy_rate (string)
+revenue (string)
+cancel_rate (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Statistics",
+"parkinglot_id" : "1",
+"slot_count" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]
+"occupancy_rate" : "50%",
+"revenue" : "100$",
+"cancel_rate" : "0%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+name (string)
+parkinglot_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave",
+"parkinglot_id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Attendant",
+"id" : "aaa@aaa.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Parkinglot",
+"id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+address (string)
+fee (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Parkinglot",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"address" : "aaaaaaaaa",
+"fee" : "10",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkinglot_List",
 "parkinglot_</t>
     </r>
     <r>
@@ -756,274 +987,6 @@
 "parkingfee" : ["5.99", "10.99", "15.99"],
 "graceperiod" : ["120", "30", "0"]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "ParkingLot_Information",
-"parkinglot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 3,
-"parkinglot_id" : {"1", "2", "3"},
-"parkinglot_location" : {"811 S Negley Pittsburgh", "b", "c"},
-"parkingfee" : {"5.99", "10.99", "15.99"},
-"graceperiod" : {"120", "30", "0"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-period (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"period" : "week"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_stats_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day, week, month, year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_parkingfee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-fee (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_graceperiod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"fee" : "10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"graceperiod" : "120"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>messagetype (string)
-slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-slot_status (string[])
-slot_driverid (string[])
-driver_often (string[])
-slot_time (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "ParkinglotStatus",
-"slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : ["occupied", "occupied", "empty", "occupied"],
-"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
-"driver_often" : ["1", "2", "", "4"],
-"slot_time" : ["1000", "2000", "0", "3000"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_Statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-type (string)
-value (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Change_Response",
-"result" : "ok",
-"type" : "fee",
-"value" : "20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-slot_count (int)
-slot_status (string[])
-slot_driverid (string[])
-driver_often (string[])
-slot_time (string[])
-occupancy_rate (string)
-revenue (string)
-cancel_rate (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Statistics",
-"parkinglot_id" : "1",
-"slot_count" : 4,
-"slot_status" : ["occupied", "occupied", "empty", "occupied"],
-"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
-"driver_often" : ["1", "2", "", "4"],
-"slot_time" : ["1000", "2000", "0", "3000"]
-"occupancy_rate" : "50%",
-"revenue" : "100$",
-"cancel_rate" : "0%"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-name (string)
-parkinglot_id (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create_Attendant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove_Attendant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Attendant",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"name" : "dave",
-"parkinglot_id" : "aabb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Remove_Attendant",
-"id" : "aaa@aaa.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Parkinglot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove_Parkinglot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Remove_Parkinglot",
-"id" : "aabb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-address (string)
-fee (string)
-graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Parkinglot",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"address" : "aaaaaaaaa",
-"fee" : "10",
-"graceperiod" : "120"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,16 +1482,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1539,13 +1502,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1556,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1856,13 +1819,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1952,13 +1915,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2031,13 +1994,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2131,13 +2094,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2148,13 +2111,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2165,13 +2128,13 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2182,13 +2145,13 @@
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2202,12 +2165,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2260,16 +2223,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2280,13 +2243,13 @@
         <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2294,19 +2257,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2320,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
@@ -2380,13 +2343,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2394,19 +2357,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2414,16 +2377,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2431,16 +2394,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -2448,16 +2411,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2465,14 +2428,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2480,16 +2443,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2497,14 +2460,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2486,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C15:C16"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2576,16 +2539,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2593,16 +2556,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -2610,16 +2573,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7"/>
     </row>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="14640" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,12 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-fee (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Change_graceperiod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,12 +749,6 @@
     <t>messagetype (string)
 parkinglot_id (string)
 graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"fee" : "10"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -935,24 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-address (string)
-fee (string)
-graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Parkinglot",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"address" : "aaaaaaaaa",
-"fee" : "10",
-"graceperiod" : "120"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parkinglot_List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,6 +956,242 @@
 "parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
 "parkingfee" : ["5.99", "10.99", "15.99"],
 "graceperiod" : ["120", "30", "0"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkinglot_List",
+"parkinglot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : 3,
+"parkinglot_id" : ["1", "2", "3"],
+"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : ["5.99", "10.99", "15.99"],
+"graceperiod" : ["120", "30", "0"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>messagetype (string)
+parkinglot_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+parkinglot_id (string[])
+parkinglot_location (string[])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string[])
+graceperiod (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+parkinglot_id (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : "10"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+id (string)
+pwd (string)
+address (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string)
+graceperiod (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Create_Parkinglot",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"address" : "aaaaaaaaa",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : "10",
+"graceperiod" : "120"</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1994,13 +2200,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2039,7 +2245,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2165,12 +2371,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2223,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>89</v>
@@ -2232,7 +2438,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2288,7 +2494,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2380,13 +2586,13 @@
         <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2394,16 +2600,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -2411,16 +2617,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2428,14 +2634,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2443,16 +2649,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2460,14 +2666,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2481,12 +2687,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="C4:F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2539,16 +2745,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2556,16 +2762,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -2573,16 +2779,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7"/>
     </row>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="15600" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -2066,7 +2066,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2144,7 +2144,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2371,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -2494,7 +2494,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2687,12 +2687,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="16560" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="ParkServer→ParkHere (Driver)" sheetId="9" r:id="rId6"/>
     <sheet name="ParkHere→ParkServer (Owner)" sheetId="10" r:id="rId7"/>
     <sheet name="ParkServer→ParkHere (Owner)" sheetId="11" r:id="rId8"/>
+    <sheet name="ParkView→ParkServer" sheetId="12" r:id="rId9"/>
+    <sheet name="ParkServer→ParkView" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,14 +317,6 @@
   </si>
   <si>
     <t>Reservation_Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel_Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancelled or not cancelled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,18 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-result (string)
-reservation_id (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"result" : "cancelled",
-"reservation_id" : "000111000111"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"messagetype" : "Parkinglot_Information",
 "</t>
@@ -1195,12 +1177,94 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Create_Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+type (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same with parking lot id/pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirmation_Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+confirmation (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Confirmation_Send",
+"confirmation" : "aabbccddeeff"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome_Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Welcome_Display"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR_Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "QR_Start"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirmation_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+slot_number (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Confirmation_Response",
+"result" : "ok",
+"slot_id" : 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Response",
+"result" : "ok",
+"type" : "cancel_reservation"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ok or nok
+cancel_reservation, create_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1303,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1297,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,6 +1392,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,10 +1719,10 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1688,16 +1778,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1708,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1725,13 +1815,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1885,6 +1975,124 @@
       </c>
       <c r="F15" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +2110,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2025,13 +2233,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,7 +2274,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2121,13 +2329,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2352,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,13 +2408,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2238,256 +2446,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -2507,6 +2466,155 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2524,6 +2632,123 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
@@ -2549,13 +2774,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2563,19 +2788,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2583,16 +2808,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2600,16 +2825,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -2617,16 +2842,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2634,14 +2859,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2649,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2666,14 +2891,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2688,11 +2913,11 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2745,16 +2970,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2762,16 +2987,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -2779,18 +3004,101 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="18480" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -1206,16 +1206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-confirmation (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Confirmation_Send",
-"confirmation" : "aabbccddeeff"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome_Display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,12 +1232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Confirmation_Response",
-"result" : "ok",
-"slot_id" : 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"messagetype" : "Response",
 "result" : "ok",
 "type" : "cancel_reservation"</t>
@@ -1257,6 +1241,22 @@
     <t xml:space="preserve">
 ok or nok
 cancel_reservation, create_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Confirmation_Response",
+"result" : "ok",
+"slot_number" : 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+confirmationinfo (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Confirmation_Send",
+"confirmationinfo" : "aabbccddeeff"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1989,11 +1989,11 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
@@ -2055,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>72</v>
@@ -2072,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2080,10 +2080,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -2596,12 +2596,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,10 +2697,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3028,12 +3028,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3091,13 +3091,13 @@
         <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="19440" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="138">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1182,12 +1182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Create_Attendant",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,6 +1251,20 @@
   <si>
     <t>"messagetype" : "Confirmation_Send",
 "confirmationinfo" : "aabbccddeeff"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+name (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2046,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
@@ -2055,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2063,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>72</v>
@@ -2072,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2080,16 +2088,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -2448,12 +2456,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -2576,13 +2584,13 @@
         <v>120</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2688,19 +2696,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2715,11 +2723,11 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3028,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -3080,7 +3088,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -3088,16 +3096,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="20400" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,37 +484,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-status (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>"messagetype" : "Parkingslot_LED",
 "</t>
     </r>
@@ -1265,6 +1234,43 @@
 "id" : "aaa@aaa.com",
 "pwd" : "12341234",
 "name" : "dave"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)
+command (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1~10
+on or off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1736,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1792,7 +1798,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>65</v>
@@ -2054,16 +2060,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2071,16 +2077,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2088,16 +2094,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -2114,11 +2120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2241,13 +2247,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,13 +2343,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2416,13 +2422,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2456,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -2516,13 +2522,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2533,13 +2539,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2567,13 +2573,13 @@
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2581,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2662,16 +2668,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2682,13 +2688,13 @@
         <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2696,19 +2702,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2782,13 +2788,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2796,19 +2802,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2816,16 +2822,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2833,16 +2839,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -2850,16 +2856,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2867,14 +2873,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2882,16 +2888,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2899,14 +2905,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2978,16 +2984,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
@@ -2995,16 +3001,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -3012,16 +3018,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -3088,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -3096,16 +3102,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="21360" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1271,6 +1271,18 @@
     <t xml:space="preserve">
 1~10
 on or off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryGate_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitGate_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkingslot_LED_Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,10 +1745,10 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,7 +2136,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2210,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -2227,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -2244,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>137</v>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="22320" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="146">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,6 +1283,82 @@
   </si>
   <si>
     <t>Parkingslot_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+result (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authority (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"messagetype" : "Authentication_Response",
+"result" : "ok",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"authority" : "2"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"messagetype" : "Authentication_Response",
+"result" : "ok",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"authority" : "3"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"messagetype" : "Authentication_Response",
+"result" : "ok",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"authority" : "1"</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2378,7 +2454,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2417,13 +2493,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2627,7 +2703,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2658,7 +2734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2666,13 +2742,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2939,11 +3015,11 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2974,7 +3050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2982,13 +3058,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -3054,12 +3130,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="23280" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>authority (string)</t>
+      <t>authority (int)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1319,7 +1319,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"authority" : "2"</t>
+      <t>"authority" : 1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,7 +1338,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"authority" : "3"</t>
+      <t>"authority" : 3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1357,7 +1357,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"authority" : "1"</t>
+      <t>"authority" : 2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2454,7 +2454,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2499,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,12 +3014,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3064,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
@@ -3130,12 +3130,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="23280" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="148">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,172 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-status (string)
-timestamp (int)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkingslot_Sensor",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 2,
-"status" : "empty",
-"timestamp" : 10</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkingslot_LED",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 2,
-"status" : "off",
-"timestamp" : 15</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-slot_status (string[])
-led_status (string[])
-entrygate (string)
-exitgate (string)
-entrygateled (string)
-exitgateled (string)
-entrygate_arrive (string)
-exitgate_arrive (string)
-timestamp (int)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkingslot_LED",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 3,
-"command" : "on"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>messagetype (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,45 +428,6 @@
 "graceperiod" : "120",
 "paymentinfo" : "2222333344445555",
 "configrmationinfo" : "sanghee, aabbccdd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkinglot_Information",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : ["1", "1", "0", "1"],
-"led_status" : ["0", "0", "0", "0"],
-"entrygate" : "0",
-"exitgate" : "0",
-"entrygateled" : "0",
-"exitgateled" : "1",
-"entrygate_arrive" : "0",
-"exitgate_arrive" : "0",
-"timestamp" : 5</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1237,37 +1032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-command (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 1~10
 on or off</t>
@@ -1361,12 +1125,94 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reset",
+"timestamp" : 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slot_number (int)
+command (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_LED",
+"slot_number" : 3,
+"command" : "on"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_count (int)
+slot_status (string[])
+led_status (string[])
+entrygate (string)
+exitgate (string)
+entrygateled (string)
+exitgateled (string)
+entrygate_arrive (string)
+exitgate_arrive (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Information",
+"slot_count" : 4,
+"slot_status" : ["1", "1", "0", "1"],
+"led_status" : ["0", "0", "0", "0"],
+"entrygate" : "0",
+"exitgate" : "0",
+"entrygateled" : "0",
+"exitgateled" : "1",
+"entrygate_arrive" : "0",
+"exitgate_arrive" : "0",
+"timestamp" : 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_number (int)
+status (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_Sensor",
+"slot_number" : 2,
+"status" : "empty",
+"timestamp" : 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_LED",
+"slot_number" : 2,
+"status" : "off",
+"timestamp" : 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,15 +1238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1413,6 +1250,20 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1471,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,22 +1347,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,14 +1680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -1838,7 +1698,7 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1872,61 +1732,61 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="181.5">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>83</v>
+      <c r="F4" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="66">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="F5" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="66">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F6" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="49.5">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1943,7 +1803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="49.5">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1960,7 +1820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="49.5">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1977,7 +1837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="49.5">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1994,7 +1854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="33" customHeight="1">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2011,7 +1871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="33" customHeight="1">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2028,7 +1888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="33" customHeight="1">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2045,7 +1905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="33" customHeight="1">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2062,7 +1922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="33" customHeight="1">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2098,7 +1958,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2109,7 +1969,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +1986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="33">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2143,55 +2003,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -2206,16 +2066,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2225,7 +2085,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="33" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="33" customHeight="1">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2259,7 +2119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="33" customHeight="1">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2276,7 +2136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="33" customHeight="1">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2293,12 +2153,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="33" customHeight="1">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -2310,12 +2170,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="33" customHeight="1">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -2327,24 +2187,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="49.5">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="33" customHeight="1">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -2359,6 +2219,23 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="33">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2256,7 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2389,7 +2266,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2423,7 +2300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2431,13 +2308,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2334,7 @@
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2468,7 +2345,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2493,16 +2370,16 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="99">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2510,16 +2387,16 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2558,7 +2435,7 @@
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2568,7 +2445,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2602,7 +2479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2610,16 +2487,16 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="82.5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2627,16 +2504,16 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -2644,16 +2521,16 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="49.5">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -2661,30 +2538,30 @@
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="66">
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2583,7 @@
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2717,7 +2594,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2742,33 +2619,33 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="99">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="165">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2776,33 +2653,33 @@
         <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2701,7 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -2834,7 +2711,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2868,7 +2745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2876,131 +2753,131 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="49.5">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="82.5">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="99">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="33">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3014,15 +2891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -3033,7 +2910,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3058,64 +2935,64 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="99">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="165">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="66">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -3138,7 +3015,7 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -3148,7 +3025,7 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="49.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3182,24 +3059,24 @@
         <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="33">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1684,7 +1684,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2580,7 +2580,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
+    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -289,17 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Notification",
-"type" : "Reallocation"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- reallocation
-- confirmation information error
-- payment error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParkinglotInfo_Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,34 +395,434 @@
   </si>
   <si>
     <t>messagetype (string)
+parkinglot_id (string)
+period (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"period" : "week"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_stats_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day, week, month, year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_parkingfee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_graceperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
 result (string)
-reservation_id (string)
-reservation_time (string)
+type (string)
+value (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_Response",
+"result" : "ok",
+"type" : "fee",
+"value" : "20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
 parkinglot_id (string)
-parkinglot_location (string)
-parkingfee (string)
-graceperiod (string)
-paymentinfo (string)
+slot_count (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])
+occupancy_rate (string)
+revenue (string)
+cancel_rate (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Statistics",
+"parkinglot_id" : "1",
+"slot_count" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]
+"occupancy_rate" : "50%",
+"revenue" : "100$",
+"cancel_rate" : "0%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+name (string)
+parkinglot_id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave",
+"parkinglot_id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Attendant",
+"id" : "aaa@aaa.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_Parkinglot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Remove_Parkinglot",
+"id" : "aabb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+type (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same with parking lot id/pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirmation_Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome_Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Welcome_Display"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR_Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "QR_Start"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirmation_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+slot_number (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Response",
+"result" : "ok",
+"type" : "cancel_reservation"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ok or nok
+cancel_reservation, create_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Confirmation_Response",
+"result" : "ok",
+"slot_number" : 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
 confirmationinfo (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"messagetype" : "Confirmation_Send",
+"confirmationinfo" : "aabbccddeeff"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+name (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Attendant",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1~10
+on or off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryGate_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitGate_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkingslot_LED_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reset",
+"timestamp" : 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_LED",
+"slot_number" : 3,
+"command" : "on"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_count (int)
+slot_status (string[])
+led_status (string[])
+entrygate (string)
+exitgate (string)
+entrygateled (string)
+exitgateled (string)
+entrygate_arrive (string)
+exitgate_arrive (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_Information",
+"slot_count" : 4,
+"slot_status" : ["1", "1", "0", "1"],
+"led_status" : ["0", "0", "0", "0"],
+"entrygate" : "0",
+"exitgate" : "0",
+"entrygateled" : "0",
+"exitgateled" : "1",
+"entrygate_arrive" : "0",
+"exitgate_arrive" : "0",
+"timestamp" : 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_number (int)
+status (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_Sensor",
+"slot_number" : 2,
+"status" : "empty",
+"timestamp" : 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkingslot_LED",
+"slot_number" : 2,
+"status" : "off",
+"timestamp" : 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- reallocation
+- confirmation information error
+- payment error
+- parkinglot error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Notification",
+"type" : "reallocation"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_number (int)
+command (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+authority (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Authentication_Response",
+"result" : "ok",
+"authority" : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+slot_count (int)
+slot_status (string[])
+slot_driverid (string[])
+driver_often (string[])
+slot_time (string[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ParkinglotStatus",
+"slot_count" : 4,
+"slot_status" : ["occupied", "occupied", "empty", "occupied"],
+"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
+"driver_often" : ["1", "2", "", "4"],
+"slot_time" : ["1000", "2000", "0", "3000"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Authentication_Response",
+"result" : "ok",
+"authority" : 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_id (string)
+parking_fee (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"messagetype" : "Reservation_Request",
+"parkinglot_id" : "aabb",
+"parking_fee" : "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+pwd (string)
+address (string)
+parking_fee (string)
+graceperiod (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Parkinglot",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"address" : "aaaaaaaaa",
+"parking_fee" : "10",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Authentication_Response",
 "result" : "ok",
-"reservation_id" : "12",
-"reservation_time" : "2016:06:24:12:00",
-"parkinglot_id" : "1",
-"parkinglot_location" : "811 S Negley Pittsburgh",
-"parkingfee" : "5.99",
-"graceperiod" : "120",
-"paymentinfo" : "2222333344445555",
-"configrmationinfo" : "sanghee, aabbccdd"</t>
+"authority" : 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_count (int)
+parkinglot_id (string[])
+parkinglot_location (string[])
+parking_fee (string[])
+graceperiod (string[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_List",
+"parkinglot_count" : 3,
+"parkinglot_id" : ["1", "2", "3"],
+"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
+"parking_fee" : ["5.99", "10.99", "15.99"],
+"graceperiod" : ["120", "30", "0"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>messagetype (string)
-parkinglot_</t>
+      <t xml:space="preserve">messagetype (string)
+parkinglot_count (int)
+parkinglot_id (string[])
+parkinglot_location (string[])
+</t>
     </r>
     <r>
       <rPr>
@@ -444,293 +833,25 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>count</t>
+      <t>parking_fee</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
-parkingfee (string[])
-graceperiod (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-period (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"period" : "week"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_stats_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day, week, month, year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_parkingfee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_graceperiod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"graceperiod" : "120"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>messagetype (string)
-slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>count</t>
+      <t xml:space="preserve"> (string[])
+graceperiod (string[])</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)
-slot_status (string[])
-slot_driverid (string[])
-driver_often (string[])
-slot_time (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "ParkinglotStatus",
-"slot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 4,
-"slot_status" : ["occupied", "occupied", "empty", "occupied"],
-"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
-"driver_often" : ["1", "2", "", "4"],
-"slot_time" : ["1000", "2000", "0", "3000"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_Statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-type (string)
-value (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Change_Response",
-"result" : "ok",
-"type" : "fee",
-"value" : "20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_id (string)
-slot_count (int)
-slot_status (string[])
-slot_driverid (string[])
-driver_often (string[])
-slot_time (string[])
-occupancy_rate (string)
-revenue (string)
-cancel_rate (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Statistics",
-"parkinglot_id" : "1",
-"slot_count" : 4,
-"slot_status" : ["occupied", "occupied", "empty", "occupied"],
-"slot_driverid" : ["aaa@a.com", "bbb@b.com", "", "ddd@d.com"],
-"driver_often" : ["1", "2", "", "4"],
-"slot_time" : ["1000", "2000", "0", "3000"]
-"occupancy_rate" : "50%",
-"revenue" : "100$",
-"cancel_rate" : "0%"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-name (string)
-parkinglot_id (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create_Attendant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove_Attendant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Attendant",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"name" : "dave",
-"parkinglot_id" : "aabb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Remove_Attendant",
-"id" : "aaa@aaa.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Parkinglot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove_Parkinglot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Remove_Parkinglot",
-"id" : "aabb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>"messagetype" : "Parkinglot_List",
-"parkinglot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 3,
-"parkinglot_id" : ["1", "2", "3"],
-"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
-"parkingfee" : ["5.99", "10.99", "15.99"],
-"graceperiod" : ["120", "30", "0"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkinglot_List",
-"parkinglot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : 3,
+"parkinglot_count" : 3,
 "parkinglot_id" : ["1", "2", "3"],
 "parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
 "</t>
@@ -749,9 +870,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -762,8 +882,13 @@
   </si>
   <si>
     <r>
-      <t>messagetype (string)
-parkinglot_</t>
+      <t>"messagetype" : "Reservation_Request",
+"result" : "ok",
+"reservation_id" : "12",
+"reservation_time" : "2016:06:24:12:00",
+"parkinglot_id" : "1",
+"parkinglot_location" : "811 S Negley Pittsburgh",
+"</t>
     </r>
     <r>
       <rPr>
@@ -774,20 +899,31 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>count</t>
+      <t>parking_fee</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
+      <t>" : "5.99",
+"graceperiod" : "120",
+"paymentinfo" : "2222333344445555",
+"configrmationinfo" : "sanghee, aabbccdd"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+result (string)
+reservation_id (string)
+reservation_time (string)
+parkinglot_id (string)
+parkinglot_location (string)
 </t>
     </r>
     <r>
@@ -804,407 +940,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])
-graceperiod (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-parkinglot_id (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>parking_fee</t>
+      <t xml:space="preserve"> (string)
+graceperiod (string)
+paymentinfo (string)
+confirmationinfo (string)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "10"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-id (string)
-pwd (string)
-address (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string)
-graceperiod (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Create_Parkinglot",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"address" : "aaaaaaaaa",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "10",
-"graceperiod" : "120"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create_Driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-type (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>same with parking lot id/pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirmation_Send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome_Display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Welcome_Display"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QR_Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "QR_Start"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirmation_Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-result (string)
-slot_number (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Response",
-"result" : "ok",
-"type" : "cancel_reservation"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ok or nok
-cancel_reservation, create_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Confirmation_Response",
-"result" : "ok",
-"slot_number" : 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-confirmationinfo (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Confirmation_Send",
-"confirmationinfo" : "aabbccddeeff"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-name (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Attendant",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"name" : "dave"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1~10
-on or off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryGate_LED_Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExitGate_LED_Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkingslot_LED_Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-result (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authority (int)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"messagetype" : "Authentication_Response",
-"result" : "ok",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"authority" : 1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"messagetype" : "Authentication_Response",
-"result" : "ok",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"authority" : 3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"messagetype" : "Authentication_Response",
-"result" : "ok",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"authority" : 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reset",
-"timestamp" : 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slot_number (int)
-command (string)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkingslot_LED",
-"slot_number" : 3,
-"command" : "on"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-slot_count (int)
-slot_status (string[])
-led_status (string[])
-entrygate (string)
-exitgate (string)
-entrygateled (string)
-exitgateled (string)
-entrygate_arrive (string)
-exitgate_arrive (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_Information",
-"slot_count" : 4,
-"slot_status" : ["1", "1", "0", "1"],
-"led_status" : ["0", "0", "0", "0"],
-"entrygate" : "0",
-"exitgate" : "0",
-"entrygateled" : "0",
-"exitgateled" : "1",
-"entrygate_arrive" : "0",
-"exitgate_arrive" : "0",
-"timestamp" : 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-slot_number (int)
-status (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkingslot_Sensor",
-"slot_number" : 2,
-"status" : "empty",
-"timestamp" : 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkingslot_LED",
-"slot_number" : 2,
-"status" : "off",
-"timestamp" : 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,7 +957,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,15 +974,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1247,23 +983,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1322,32 +1059,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1356,22 +1072,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1680,11 +1399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1699,245 +1418,258 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="181.5">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="F5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" ht="66">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="F6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" ht="49.5">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="49.5">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="49.5">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="49.5">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" ht="33" customHeight="1">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" ht="33" customHeight="1">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" ht="33" customHeight="1">
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="33" customHeight="1">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1">
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1955,105 +1687,106 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>119</v>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>121</v>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2072,7 +1805,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2098,144 +1831,144 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="33" customHeight="1">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" customHeight="1">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="49.5">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>142</v>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="33">
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>140</v>
+      <c r="F10" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2253,68 +1986,69 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2065,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2346,74 +2080,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="99">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="99">
-      <c r="B4" s="1">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" ht="66">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>58</v>
+      <c r="F5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2432,136 +2169,137 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="82.5">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="49.5">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="82.5">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="66">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="49.5">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="66">
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>130</v>
+      <c r="F8" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2576,11 +2314,11 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2595,91 +2333,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="99">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="165">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" ht="49.5">
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>125</v>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2693,12 +2435,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2712,173 +2454,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="49.5">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" ht="49.5">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="49.5">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="82.5">
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="33">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" ht="99">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" ht="33">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="99">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="33">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2896,7 +2647,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2911,90 +2662,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>136</v>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>107</v>
+      <c r="F4" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>94</v>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3012,71 +2763,72 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="49.5">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>116</v>
+      <c r="G3" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>128</v>
+      <c r="F4" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,88 +796,6 @@
     <t>"messagetype" : "Authentication_Response",
 "result" : "ok",
 "authority" : 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagetype (string)
-parkinglot_count (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
-parking_fee (string[])
-graceperiod (string[])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_List",
-"parkinglot_count" : 3,
-"parkinglot_id" : ["1", "2", "3"],
-"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
-"parking_fee" : ["5.99", "10.99", "15.99"],
-"graceperiod" : ["120", "30", "0"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">messagetype (string)
-parkinglot_count (int)
-parkinglot_id (string[])
-parkinglot_location (string[])
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])
-graceperiod (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkinglot_List",
-"parkinglot_count" : 3,
-"parkinglot_id" : ["1", "2", "3"],
-"parkinglot_location" : ["811 S Negley Pittsburgh", "b", "c"],
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : ["5.99", "10.99", "15.99"],
-"graceperiod" : ["120", "30", "0"]</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -949,6 +867,196 @@
 graceperiod (string)
 paymentinfo (string)
 confirmationinfo (string)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">messagetype (string)
+parkinglot_count (int)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parkinglot_id_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string[])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parkinglot_location_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string[])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string[])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>graceperiod_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (string[])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Parkinglot_List",
+"parkinglot_count" : 3,
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parkinglot_id_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : ["1", "2", "3"],
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parkinglot_location_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : ["811 S Negley Pittsburgh", "b", "c"],
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : ["5.99", "10.99", "15.99"],
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>graceperiod_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : ["120", "30", "0"]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2165,11 +2273,11 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2313,12 +2421,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2328,7 +2436,7 @@
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="6" max="6" width="56.5" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2394,13 +2502,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2427,7 +2535,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2435,12 +2543,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2647,7 +2755,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="B2:F6"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2703,13 +2811,13 @@
         <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165">

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -297,18 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cancel_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReservationInfo_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reservation_Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 1~10
 0 or 1
@@ -372,11 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Reservation_Request",
-"driver_id" : "louder81@gmail.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>messagetype (string)
 driver_id (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,49 +371,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Reservation_Request",
-"driver_id" : "louder81@gmail.com",
-"reservation_id" : "000111000111"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>messagetype (string)
 parkinglot_id (string)
 period (string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"period" : "week"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_stats_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day, week, month, year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_parkingfee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_graceperiod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>messagetype (string)
 parkinglot_id (string)
 graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"graceperiod" : "120"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create_Driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,13 +566,6 @@
 id (string)
 pwd (string)
 name (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Attendant",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"name" : "dave"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,12 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Reservation_Request",
-"parkinglot_id" : "aabb",
-"parking_fee" : "10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>messagetype (string)
 id (string)
 pwd (string)
@@ -796,42 +732,6 @@
     <t>"messagetype" : "Authentication_Response",
 "result" : "ok",
 "authority" : 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Reservation_Request",
-"result" : "ok",
-"reservation_id" : "12",
-"reservation_time" : "2016:06:24:12:00",
-"parkinglot_id" : "1",
-"parkinglot_location" : "811 S Negley Pittsburgh",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "5.99",
-"graceperiod" : "120",
-"paymentinfo" : "2222333344445555",
-"configrmationinfo" : "sanghee, aabbccdd"</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1058,6 +958,106 @@
       </rPr>
       <t>" : ["120", "30", "0"]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Cancel_Request",
+"driver_id" : "louder81@gmail.com",
+"reservation_id" : "000111000111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReservationInfo_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ReservationInfo_Request",
+"driver_id" : "louder81@gmail.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Driver",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Reservation_Information",
+"result" : "ok",
+"reservation_id" : "12",
+"reservation_time" : "2016:06:24:12:00",
+"parkinglot_id" : "1",
+"parkinglot_location" : "811 S Negley Pittsburgh",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parking_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : "5.99",
+"graceperiod" : "120",
+"paymentinfo" : "2222333344445555",
+"configrmationinfo" : "sanghee, aabbccdd"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_stats_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_stats_Request",
+"parkinglot_id" : "aabb",
+"period" : "week"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_parkingfee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_parkingfee",
+"parkinglot_id" : "aabb",
+"parking_fee" : "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_graceperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_graceperiod",
+"parkinglot_id" : "aabb",
+"graceperiod" : "120"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,7 +1511,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1569,16 +1569,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66">
@@ -1589,13 +1589,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1607,13 +1607,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -1849,16 +1849,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1866,16 +1866,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
@@ -1883,16 +1883,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>29</v>
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>51</v>
@@ -2016,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -2033,16 +2033,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1">
@@ -2067,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -2076,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2094,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2150,13 +2150,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2173,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="B2:G5"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2213,13 +2213,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2231,13 +2231,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2255,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2277,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2333,13 +2333,13 @@
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="82.5">
@@ -2350,13 +2350,13 @@
         <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33">
@@ -2364,16 +2364,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5">
@@ -2381,16 +2381,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="66">
@@ -2398,16 +2398,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2421,12 +2421,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2466,13 +2466,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2481,16 +2481,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2499,16 +2499,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2517,19 +2517,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2544,11 +2544,11 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2605,13 +2605,13 @@
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2620,19 +2620,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
@@ -2640,16 +2640,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2658,16 +2658,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2676,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -2694,14 +2694,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2710,16 +2710,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2728,21 +2728,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2750,12 +2750,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2794,13 +2794,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99">
@@ -2808,16 +2808,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165">
@@ -2825,16 +2825,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66">
@@ -2842,16 +2842,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2871,7 +2871,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2919,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33">
@@ -2927,16 +2927,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Now\CMU\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="25200" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,11 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"messagetype" : "Remove_Parkinglot",
-"id" : "aabb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parkinglot_List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,37 +706,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-id (string)
-pwd (string)
-address (string)
-parking_fee (string)
-graceperiod (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Parkinglot",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"address" : "aaaaaaaaa",
-"parking_fee" : "10",
-"graceperiod" : "120"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"messagetype" : "Authentication_Response",
 "result" : "ok",
 "authority" : 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Cancel_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Cancel_Request",
+"driver_id" : "louder81@gmail.com",
+"reservation_id" : "000111000111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReservationInfo_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "ReservationInfo_Request",
+"driver_id" : "louder81@gmail.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Create_Driver",
+"id" : "aaa@aaa.com",
+"pwd" : "12341234",
+"name" : "dave"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinglot_stats_Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_stats_Request",
+"parkinglot_id" : "aabb",
+"period" : "week"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_parkingfee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_parkingfee",
+"parkinglot_id" : "aabb",
+"parking_fee" : "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_graceperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Change_graceperiod",
+"parkinglot_id" : "aabb",
+"graceperiod" : "120"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">messagetype (string)
-result (string)
-reservation_id (string)
-reservation_time (string)
-parkinglot_id (string)
-parkinglot_location (string)
 </t>
     </r>
     <r>
@@ -753,7 +789,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>parking_fee</t>
+      <t>parkinglot_id (string)</t>
     </r>
     <r>
       <rPr>
@@ -763,17 +799,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (string)
-graceperiod (string)
-paymentinfo (string)
-confirmationinfo (string)</t>
+      <t xml:space="preserve">
+pwd (string)
+address (string)
+parking_fee (string)
+graceperiod (string)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">messagetype (string)
-parkinglot_count (int)
 </t>
     </r>
     <r>
@@ -785,90 +821,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>parkinglot_id_list</t>
+      <t>parkinglot_id (string)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parkinglot_location_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>graceperiod_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (string[])</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Parkinglot_List",
-"parkinglot_count" : 3,
+      <t>"messagetype" : "Create_Parkinglot",
 "</t>
     </r>
     <r>
@@ -880,7 +839,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>parkinglot_id_list</t>
+      <t>parkinglot_id</t>
     </r>
     <r>
       <rPr>
@@ -890,7 +849,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" : ["1", "2", "3"],
+      <t>" : "aaa@aaa.com",
+"pwd" : "12341234",
+"address" : "aaaaaaaaa",
+"parking_fee" : "10",
+"graceperiod" : "120"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"messagetype" : "Remove_Parkinglot",
 "</t>
     </r>
     <r>
@@ -902,7 +871,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>parkinglot_location_list</t>
+      <t>parkinglot_id</t>
     </r>
     <r>
       <rPr>
@@ -912,152 +881,70 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" : ["811 S Negley Pittsburgh", "b", "c"],
-"</t>
+      <t>" : "aabb"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : ["5.99", "10.99", "15.99"],
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>graceperiod_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : ["120", "30", "0"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Cancel_Request",
-"driver_id" : "louder81@gmail.com",
-"reservation_id" : "000111000111"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReservationInfo_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "ReservationInfo_Request",
-"driver_id" : "louder81@gmail.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create_Driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Create_Driver",
-"id" : "aaa@aaa.com",
-"pwd" : "12341234",
-"name" : "dave"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reservation_Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"messagetype" : "Reservation_Information",
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_count (int)
+parkinglot_id_list (string[])
+parkinglot_location_list (string[])
+parking_fee_list (string[])
+graceperiod_list (string[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_List",
+"parkinglot_count" : 3,
+"parkinglot_id_list" : ["1", "2", "3"],
+"parkinglot_location_list" : ["811 S Negley Pittsburgh", "b", "c"],
+"parking_fee_list" : ["5.99", "10.99", "15.99"],
+"graceperiod_list" : ["120", "30", "0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+parkinglot_count (int)
+parkinglot_id_list (string[])
+parkinglot_location_list (string[])
+parking_fee_list (string[])
+graceperiod_list (string[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Parkinglot_List",
+"parkinglot_count" : 3,
+"parkinglot_id_list" : ["1", "2", "3"],
+"parkinglot_location_list" : ["811 S Negley Pittsburgh", "b", "c"],
+"parking_fee_list" : ["5.99", "10.99", "15.99"],
+"graceperiod_list" : ["120", "30", "0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+reservation_id (string)
+reservation_time (string)
+parkinglot_id (string)
+parkinglot_location (string)
+parking_fee (string)
+graceperiod (string)
+paymentinfo (string)
+confirmationinfo (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Information",
 "result" : "ok",
 "reservation_id" : "12",
 "reservation_time" : "2016:06:24:12:00",
 "parkinglot_id" : "1",
 "parkinglot_location" : "811 S Negley Pittsburgh",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parking_fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" : "5.99",
+"parking_fee" : "5.99",
 "graceperiod" : "120",
 "paymentinfo" : "2222333344445555",
 "configrmationinfo" : "sanghee, aabbccdd"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinglot_stats_Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Parkinglot_stats_Request",
-"parkinglot_id" : "aabb",
-"period" : "week"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_parkingfee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Change_parkingfee",
-"parkinglot_id" : "aabb",
-"parking_fee" : "10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change_graceperiod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Change_graceperiod",
-"parkinglot_id" : "aabb",
-"graceperiod" : "120"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -1589,13 +1476,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1607,13 +1494,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -1795,7 +1682,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1849,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>61</v>
@@ -1858,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1866,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>61</v>
@@ -1875,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
@@ -1883,16 +1770,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>29</v>
@@ -1913,7 +1800,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="B2:F10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1999,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>51</v>
@@ -2016,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -2033,16 +1920,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1">
@@ -2067,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -2076,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +1981,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2213,13 +2100,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2231,13 +2118,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2255,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2273,11 +2160,11 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2364,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>67</v>
@@ -2373,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5">
@@ -2381,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>68</v>
@@ -2390,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="66">
@@ -2398,16 +2285,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2422,11 +2309,11 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2466,13 +2353,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2481,16 +2368,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2499,16 +2386,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2517,19 +2404,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2543,12 +2430,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2620,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>69</v>
@@ -2629,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>70</v>
@@ -2640,16 +2527,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2658,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>71</v>
@@ -2667,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2713,13 +2600,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2731,11 +2618,11 @@
         <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -2750,12 +2637,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2794,13 +2681,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99">
@@ -2808,16 +2695,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165">
@@ -2919,7 +2806,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33">
@@ -2927,16 +2814,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocument/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocument/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="26160" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -284,11 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-type (string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParkinglotInfo_Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,11 +645,6 @@
 - confirmation information error
 - payment error
 - parkinglot error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Notification",
-"type" : "reallocation"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -945,6 +935,18 @@
 "graceperiod" : "120",
 "paymentinfo" : "2222333344445555",
 "configrmationinfo" : "sanghee, aabbccdd"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+id (string)
+type (string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Notification",
+"id" : "dave@aaa.com",
+"type" : "reallocation"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1456,16 +1458,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66">
@@ -1476,13 +1478,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1494,13 +1496,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -1736,16 +1738,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1753,16 +1755,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
@@ -1770,16 +1772,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>29</v>
@@ -1886,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>51</v>
@@ -1903,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -1920,16 +1922,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1">
@@ -1954,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -1963,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1983,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2037,13 +2039,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2056,11 +2058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2100,13 +2102,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2118,13 +2120,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2136,16 +2138,16 @@
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2166,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2217,16 +2219,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="82.5">
@@ -2234,16 +2236,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33">
@@ -2251,16 +2253,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5">
@@ -2268,16 +2270,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="66">
@@ -2285,16 +2287,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2353,13 +2355,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2368,16 +2370,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2386,16 +2388,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2404,19 +2406,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2430,12 +2432,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2489,16 +2491,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2507,19 +2509,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49.5">
@@ -2527,16 +2529,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2545,16 +2547,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2563,16 +2565,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -2581,14 +2583,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2597,16 +2599,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2615,14 +2617,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -2642,7 +2644,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2681,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="99">
@@ -2695,16 +2697,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="165">
@@ -2712,16 +2714,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66">
@@ -2729,16 +2731,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2806,7 +2808,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33">
@@ -2814,16 +2816,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
